--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abubakar.NOTEBOOK\Documents\projects\results-builder\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abubakar.NOTEBOOK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF40CA4C-94E1-4401-9D46-CE0D07B5D01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F12CD8-C0A9-4878-A056-BAFBB9F7EC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4E254CAC-24CF-42AA-A9D0-CDC25810A912}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{4E254CAC-24CF-42AA-A9D0-CDC25810A912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>English</t>
   </si>
@@ -57,6 +57,69 @@
   </si>
   <si>
     <t>Class - Section</t>
+  </si>
+  <si>
+    <t>S1612001</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>IX-A</t>
+  </si>
+  <si>
+    <t>S1612002</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>S1612003</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>S1612004</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>S1612005</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>S1612006</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>S1612007</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>S1612008</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>S1612009</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>S1612010</t>
+  </si>
+  <si>
+    <t>Nathan</t>
   </si>
   <si>
     <t>Cat</t>
@@ -735,9 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92599EC8-95C9-4E35-91DC-F76F09EDAEED}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -758,11 +819,11 @@
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="15" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="15" t="s">
@@ -778,35 +839,35 @@
       </c>
       <c r="O1" s="18"/>
       <c r="P1" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="18"/>
       <c r="R1" s="15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="S1" s="18"/>
       <c r="T1" s="15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="U1" s="18"/>
       <c r="V1" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="W1" s="18"/>
       <c r="X1" s="15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AA1" s="16"/>
       <c r="AB1" s="15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AC1" s="16"/>
       <c r="AD1" s="17" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -820,90 +881,98 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="17"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -931,14 +1000,22 @@
       <c r="AC3" s="6"/>
       <c r="AD3">
         <f>SUM(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3,AA3,AB3,AC3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -966,14 +1043,22 @@
       <c r="AC4" s="6"/>
       <c r="AD4">
         <f t="shared" ref="AD4:AD12" si="0">SUM(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1001,14 +1086,22 @@
       <c r="AC5" s="6"/>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1036,14 +1129,22 @@
       <c r="AC6" s="6"/>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1071,14 +1172,22 @@
       <c r="AC7" s="6"/>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1106,14 +1215,22 @@
       <c r="AC8" s="6"/>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1141,14 +1258,22 @@
       <c r="AC9" s="6"/>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>30</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1176,14 +1301,22 @@
       <c r="AC10" s="6"/>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1211,14 +1344,22 @@
       <c r="AC11" s="6"/>
       <c r="AD11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10">
+        <v>30</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1246,7 +1387,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abubakar.NOTEBOOK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F12CD8-C0A9-4878-A056-BAFBB9F7EC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750CC95B-5AE0-400A-B4D9-3FC090E6369E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{4E254CAC-24CF-42AA-A9D0-CDC25810A912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4E254CAC-24CF-42AA-A9D0-CDC25810A912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>English</t>
   </si>
@@ -57,69 +57,6 @@
   </si>
   <si>
     <t>Class - Section</t>
-  </si>
-  <si>
-    <t>S1612001</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>IX-A</t>
-  </si>
-  <si>
-    <t>S1612002</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>S1612003</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>S1612004</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>S1612005</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>S1612006</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>S1612007</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>S1612008</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>S1612009</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>S1612010</t>
-  </si>
-  <si>
-    <t>Nathan</t>
   </si>
   <si>
     <t>Cat</t>
@@ -232,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -418,6 +355,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -473,10 +419,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,15 +742,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92599EC8-95C9-4E35-91DC-F76F09EDAEED}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="23" max="23" width="12.42578125" customWidth="1"/>
     <col min="30" max="30" width="24.5703125" customWidth="1"/>
@@ -817,57 +765,57 @@
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="G1" s="17"/>
       <c r="H1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="I1" s="17"/>
       <c r="J1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="18"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="18"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="Q1" s="17"/>
       <c r="R1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="S1" s="17"/>
       <c r="T1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="U1" s="17"/>
       <c r="V1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="W1" s="17"/>
       <c r="X1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="Y1" s="17"/>
       <c r="Z1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="AA1" s="17"/>
       <c r="AB1" s="15" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="16"/>
-      <c r="AD1" s="17" t="s">
-        <v>41</v>
+      <c r="AD1" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -881,98 +829,90 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="AD2" s="18"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1000,22 +940,14 @@
       <c r="AC3" s="6"/>
       <c r="AD3">
         <f>SUM(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3,AA3,AB3,AC3)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6">
-        <v>20</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1042,23 +974,15 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4">
-        <f t="shared" ref="AD4:AD12" si="0">SUM(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4)</f>
-        <v>20</v>
+        <f t="shared" ref="AD4:AD60" si="0">SUM(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1086,22 +1010,14 @@
       <c r="AC5" s="6"/>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1129,22 +1045,14 @@
       <c r="AC6" s="6"/>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6">
-        <v>20</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1172,22 +1080,14 @@
       <c r="AC7" s="6"/>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
-        <v>30</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1215,22 +1115,14 @@
       <c r="AC8" s="6"/>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6">
-        <v>20</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="14"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1258,22 +1150,14 @@
       <c r="AC9" s="6"/>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6">
-        <v>30</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1301,22 +1185,14 @@
       <c r="AC10" s="6"/>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6">
-        <v>20</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1344,22 +1220,14 @@
       <c r="AC11" s="6"/>
       <c r="AD11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10">
-        <v>30</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1386,8 +1254,2038 @@
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>SUM(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12,Q12,R12,S12,T12,U12,V12,W12,X12,Y12,Z12,AA12,AB12,AC12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13">
+        <f t="shared" ref="AD13:AD70" si="1">SUM(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13,X13,Y13,Z13,AA13,AB13,AC13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +3306,10 @@
     <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Cat marks are less than 30" sqref="F2:F12 D3:D13 H3:H14 J3:J12 L2:L12 N2:N12 P2:P12 R2:R12 T2:T12 V3:V12 X2:X12 Z3:Z12 AB3:AB12" xr:uid="{980DEDCC-FF60-4784-8A5E-17663D2494F1}">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Cat marks are less than 30" sqref="F2:F70 AB3:AB70 D3:D70 J3:J70 L2:L70 N2:N70 P2:P70 R2:R70 T2:T70 V3:V70 X2:X70 Z3:Z70 H3:H70" xr:uid="{980DEDCC-FF60-4784-8A5E-17663D2494F1}">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12 I3:I12 K3:K12 M3:M12 O3:O12 Q3:Q12 S3:S12 U3:U12 W3:W12 Y3:Y12 AA3:AA12 E3:E8 E10:E12 AC3:AC12" xr:uid="{32EC123C-B0EE-4BF0-8A45-0CC3D46C01FF}">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G70 I3:I70 K3:K70 M3:M70 O3:O70 Q3:Q70 S3:S70 U3:U70 W3:W70 Y3:Y70 AA3:AA70 E3:E8 E10:E70 AC3:AC70" xr:uid="{32EC123C-B0EE-4BF0-8A45-0CC3D46C01FF}">
       <formula1>70</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/assets/template.xlsx
+++ b/src/assets/template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abubakar.NOTEBOOK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750CC95B-5AE0-400A-B4D9-3FC090E6369E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A364DF91-E11B-4D8D-A0A6-803F8282D22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4E254CAC-24CF-42AA-A9D0-CDC25810A912}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" activeTab="1" xr2:uid="{4E254CAC-24CF-42AA-A9D0-CDC25810A912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>English</t>
   </si>
@@ -99,6 +100,48 @@
   </si>
   <si>
     <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>KISWAHILI</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>BIOLOGY</t>
+  </si>
+  <si>
+    <t>CHEMISTRY</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY &amp; GOVT </t>
+  </si>
+  <si>
+    <t>GEOGRAPHY</t>
+  </si>
+  <si>
+    <t>AGRICULTURE</t>
+  </si>
+  <si>
+    <t>COMPUTER STUDIES</t>
+  </si>
+  <si>
+    <t>BUSINESS STUDIES</t>
+  </si>
+  <si>
+    <t>ARABIC</t>
   </si>
 </sst>
 </file>
@@ -419,10 +462,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,6 +486,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76593677-2054-4020-8AA5-51E19E60CD0A}" name="Table1" displayName="Table1" ref="A1:B14" totalsRowShown="0">
+  <autoFilter ref="A1:B14" xr:uid="{76593677-2054-4020-8AA5-51E19E60CD0A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9EFE548C-8944-4F6E-A4D3-EE1DB28A5C01}" name="Subject"/>
+    <tableColumn id="2" xr3:uid="{B3F5FCC9-F52A-4ACD-B9CB-2C0C32313601}" name="Initial"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92599EC8-95C9-4E35-91DC-F76F09EDAEED}">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,56 +819,56 @@
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="17"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="17"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="17"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="17"/>
+      <c r="W1" s="18"/>
       <c r="X1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="17"/>
+      <c r="Y1" s="18"/>
       <c r="Z1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="17"/>
+      <c r="AA1" s="18"/>
       <c r="AB1" s="15" t="s">
         <v>17</v>
       </c>
       <c r="AC1" s="16"/>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -906,7 +960,7 @@
       <c r="AC2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="18"/>
+      <c r="AD2" s="17"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -974,7 +1028,7 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4">
-        <f t="shared" ref="AD4:AD60" si="0">SUM(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4)</f>
+        <f t="shared" ref="AD4:AD11" si="0">SUM(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4)</f>
         <v>0</v>
       </c>
     </row>
@@ -3316,4 +3370,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDBF9B4-5C88-4FE9-9B5A-C2D1B5C68FC5}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>